--- a/forms/app/covid_trace_follow_up.xlsx
+++ b/forms/app/covid_trace_follow_up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E34808-0F49-134C-8F6D-1D16531C1F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0DEFEE-3B17-0147-9D6F-D1F8B762FA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="179">
   <si>
     <t>list_name</t>
   </si>
@@ -322,12 +322,6 @@
     <t>Church name</t>
   </si>
   <si>
-    <t>patient_zero</t>
-  </si>
-  <si>
-    <t>Patient Zero UUID</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -397,12 +391,6 @@
     <t>Flight details: **${flight_details}**</t>
   </si>
   <si>
-    <t>n_contact_location</t>
-  </si>
-  <si>
-    <t>Where the contact took place:</t>
-  </si>
-  <si>
     <t>n_address</t>
   </si>
   <si>
@@ -439,16 +427,7 @@
     <t>Church name: **${church}**</t>
   </si>
   <si>
-    <t>contact_patient_zero</t>
-  </si>
-  <si>
-    <t>Patient Zero</t>
-  </si>
-  <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>../../inputs/contact/patient_zero</t>
   </si>
   <si>
     <t>trace</t>
@@ -506,6 +485,90 @@
   </si>
   <si>
     <t>db-object bind-id-only hidden</t>
+  </si>
+  <si>
+    <t>../../inputs/contact/covid_patient</t>
+  </si>
+  <si>
+    <t>contact_covid_patient</t>
+  </si>
+  <si>
+    <t>Patient with covid-19</t>
+  </si>
+  <si>
+    <t>covid_patient</t>
+  </si>
+  <si>
+    <t>Patient with covid-19 UUID</t>
+  </si>
+  <si>
+    <t>${surname}!=''</t>
+  </si>
+  <si>
+    <t>${other_names}!=''</t>
+  </si>
+  <si>
+    <t>${sex_label}!=''</t>
+  </si>
+  <si>
+    <t>${age_in_years} years!=''</t>
+  </si>
+  <si>
+    <t>${phone}!=''</t>
+  </si>
+  <si>
+    <t>${flight_details}!=''</t>
+  </si>
+  <si>
+    <t>${address}!=''</t>
+  </si>
+  <si>
+    <t>${town}!=''</t>
+  </si>
+  <si>
+    <t>${village}!=''</t>
+  </si>
+  <si>
+    <t>${chief_name}!=''</t>
+  </si>
+  <si>
+    <t>${chief_phone}!=''</t>
+  </si>
+  <si>
+    <t>${church}!=''</t>
+  </si>
+  <si>
+    <t>selected(../result, 'contacted')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do you want to stop tracing this contact ? </t>
+  </si>
+  <si>
+    <t>stop_tracing</t>
+  </si>
+  <si>
+    <t>select_one stop_tracing</t>
+  </si>
+  <si>
+    <t>unable_to_contact</t>
+  </si>
+  <si>
+    <t>contacted_but_not_available</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>The contact is unavailable or unreachable</t>
+  </si>
+  <si>
+    <t>The contact refused to be traced</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>selected(../stop_tracing, 'stop')</t>
   </si>
 </sst>
 </file>
@@ -979,15 +1042,15 @@
   <dimension ref="A1:AP1027"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
     <col min="3" max="4" width="41.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
@@ -2083,13 +2146,13 @@
         <v>59</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>97</v>
+      <c r="C21" s="36" t="s">
+        <v>155</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>97</v>
+      <c r="D21" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -2224,10 +2287,10 @@
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2243,7 +2306,7 @@
       <c r="N24" s="35"/>
       <c r="O24" s="3"/>
       <c r="P24" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -2274,25 +2337,25 @@
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
@@ -2303,7 +2366,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="37"/>
       <c r="P25" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="37"/>
       <c r="R25" s="3"/>
@@ -2336,13 +2399,13 @@
         <v>54</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
@@ -2387,23 +2450,25 @@
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>110</v>
-      </c>
       <c r="D27" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="33"/>
+      <c r="J27" s="36" t="s">
+        <v>156</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2441,23 +2506,25 @@
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="33"/>
+      <c r="J28" s="36" t="s">
+        <v>157</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2495,23 +2562,25 @@
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
       <c r="G29" s="34"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="33"/>
+      <c r="J29" s="36" t="s">
+        <v>158</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2549,23 +2618,25 @@
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="34"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="33"/>
+      <c r="J30" s="36" t="s">
+        <v>159</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2603,23 +2674,25 @@
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="34"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="33"/>
+      <c r="J31" s="36" t="s">
+        <v>160</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2657,23 +2730,25 @@
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="34"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="33"/>
+      <c r="J32" s="36" t="s">
+        <v>161</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2711,23 +2786,25 @@
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="34"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="33"/>
+      <c r="J33" s="29" t="s">
+        <v>162</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2765,23 +2842,25 @@
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="G34" s="34"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="33"/>
+      <c r="J34" s="29" t="s">
+        <v>163</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2819,23 +2898,25 @@
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="33"/>
+      <c r="J35" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2873,23 +2954,25 @@
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="34"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="33"/>
+      <c r="J36" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2927,23 +3010,25 @@
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="34"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="33"/>
+      <c r="J37" s="29" t="s">
+        <v>166</v>
+      </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -2981,23 +3066,25 @@
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="34"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="33"/>
+      <c r="J38" s="29" t="s">
+        <v>167</v>
+      </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -3035,37 +3122,41 @@
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>134</v>
+      <c r="C39" s="36" t="s">
+        <v>153</v>
       </c>
-      <c r="D39" s="29" t="s">
-        <v>134</v>
+      <c r="D39" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="34"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+      <c r="H39" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>131</v>
+      </c>
       <c r="J39" s="33"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="35"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="36"/>
+      <c r="P39" s="36" t="s">
+        <v>151</v>
+      </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-      <c r="V39" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
@@ -3089,35 +3180,23 @@
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>136</v>
-      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="34"/>
-      <c r="H40" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>137</v>
-      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="33"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="35"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="36" t="s">
-        <v>138</v>
-      </c>
+      <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -3147,15 +3226,23 @@
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="B41" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>133</v>
+      </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="34"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="33"/>
       <c r="K41" s="3"/>
@@ -3192,24 +3279,24 @@
       <c r="AP41" s="3"/>
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
-        <v>54</v>
+      <c r="A42" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>140</v>
+      <c r="C42" s="3" t="s">
+        <v>136</v>
       </c>
-      <c r="D42" s="36" t="s">
-        <v>140</v>
+      <c r="D42" s="3" t="s">
+        <v>136</v>
       </c>
-      <c r="E42" s="33"/>
+      <c r="E42" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="F42" s="33"/>
       <c r="G42" s="34"/>
-      <c r="H42" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="33"/>
       <c r="K42" s="3"/>
@@ -3246,76 +3333,73 @@
       <c r="AP42" s="3"/>
     </row>
     <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>141</v>
+      <c r="A43" s="28" t="s">
+        <v>137</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>142</v>
+      <c r="B43" s="28" t="s">
+        <v>138</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>143</v>
+      <c r="C43" s="28" t="s">
+        <v>139</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>143</v>
+      <c r="D43" s="28" t="s">
+        <v>139</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
+      <c r="E43" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
-      <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
-    </row>
-    <row r="44" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+    </row>
+    <row r="44" spans="1:42" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
-      <c r="E44" s="28"/>
+      <c r="E44" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="J44" s="28" t="s">
+        <v>143</v>
+      </c>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
       <c r="M44" s="28"/>
@@ -3343,23 +3427,25 @@
         <v>60</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I45" s="28"/>
       <c r="J45" s="27" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="K45" s="28"/>
       <c r="L45" s="28"/>
@@ -3385,16 +3471,16 @@
     </row>
     <row r="46" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
@@ -3410,7 +3496,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="28"/>
       <c r="P46" s="27" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="Q46" s="28"/>
       <c r="R46" s="28"/>
@@ -3432,10 +3518,10 @@
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
@@ -3451,7 +3537,7 @@
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
       <c r="P47" s="27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Q47" s="28"/>
       <c r="R47" s="28"/>
@@ -35823,7 +35909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35964,22 +36052,46 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -41987,7 +42099,7 @@
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-04-12 12-22</v>
+        <v>2020-04-16 13-52</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>52</v>
